--- a/public/Plantilla_Carga_Masiva_Usuarios.xlsx
+++ b/public/Plantilla_Carga_Masiva_Usuarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ECB75F-B41A-4048-B26A-0A084BDA04C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91028D9-8D1A-42D8-AC41-5807D63C8902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>nombre</t>
   </si>
@@ -74,21 +74,12 @@
     <t>CC</t>
   </si>
   <si>
-    <t>3001234567</t>
-  </si>
-  <si>
     <t>ARRENDATARIO</t>
   </si>
   <si>
-    <t>3009876543</t>
-  </si>
-  <si>
     <t>ADMIN</t>
   </si>
   <si>
-    <t>3005555555</t>
-  </si>
-  <si>
     <t>Roles</t>
   </si>
   <si>
@@ -117,51 +108,6 @@
   </si>
   <si>
     <t>OTRO</t>
-  </si>
-  <si>
-    <t>James Galvis</t>
-  </si>
-  <si>
-    <t>jamesrgal@gmail.com</t>
-  </si>
-  <si>
-    <t>Apto 108</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Galvis</t>
-  </si>
-  <si>
-    <t>Juli Castillo</t>
-  </si>
-  <si>
-    <t>juli@gmail.com</t>
-  </si>
-  <si>
-    <t>Apto 102</t>
-  </si>
-  <si>
-    <t>Juli</t>
-  </si>
-  <si>
-    <t>Castillo</t>
-  </si>
-  <si>
-    <t>Carl Doe</t>
-  </si>
-  <si>
-    <t>carl@gmail.com</t>
-  </si>
-  <si>
-    <t>Apto 20</t>
-  </si>
-  <si>
-    <t>Carl</t>
-  </si>
-  <si>
-    <t>Doe</t>
   </si>
 </sst>
 </file>
@@ -569,7 +515,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,118 +576,46 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1006562742</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="3">
-        <v>75.5</v>
-      </c>
-      <c r="L2" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="M2" s="3">
-        <v>500000</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1105234567</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="3">
-        <v>80</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="M3" s="3">
-        <v>550000</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1234675432</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -780,11 +654,6 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{B936344D-4805-49AA-962D-170181C47EB9}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{13257EED-3E3C-4E04-AF62-CC109D98CBF0}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{1A3DA62D-4638-4EFB-ADBD-3D4995CAF3A8}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -826,18 +695,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -851,34 +720,34 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
